--- a/myapp/files/9_MethodComparePercent/Scenario 310.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 310.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>16286</v>
+        <v>30031</v>
       </c>
       <c r="F2" t="n">
-        <v>15.5972264787006</v>
+        <v>6.49827540691309</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -593,10 +593,10 @@
         <v>4.47761194029851</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J2" t="n">
-        <v>10.6060606060606</v>
+        <v>5.45454545454545</v>
       </c>
       <c r="K2" t="n">
         <v>6</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>9306</v>
+        <v>27601</v>
       </c>
       <c r="F3" t="n">
-        <v>8.91242721422004</v>
+        <v>5.97245844314902</v>
       </c>
       <c r="G3" t="n">
         <v>2</v>
@@ -631,10 +631,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J3" t="n">
-        <v>9.09090909090909</v>
+        <v>5.45454545454545</v>
       </c>
       <c r="K3" t="n">
         <v>4</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>7213</v>
+        <v>30118</v>
       </c>
       <c r="F4" t="n">
-        <v>6.9079451425069</v>
+        <v>6.51710095252933</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -669,10 +669,10 @@
         <v>4.47761194029851</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>6.06060606060606</v>
+        <v>6.81818181818182</v>
       </c>
       <c r="K4" t="n">
         <v>5</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>15161</v>
+        <v>53547</v>
       </c>
       <c r="F5" t="n">
-        <v>14.5198053938094</v>
+        <v>11.5867987484258</v>
       </c>
       <c r="G5" t="n">
         <v>8</v>
@@ -707,10 +707,10 @@
         <v>11.9402985074627</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="J5" t="n">
-        <v>18.1818181818182</v>
+        <v>13.1818181818182</v>
       </c>
       <c r="K5" t="n">
         <v>8</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>31577</v>
+        <v>59784</v>
       </c>
       <c r="F6" t="n">
-        <v>30.2415338645418</v>
+        <v>12.9363956220869</v>
       </c>
       <c r="G6" t="n">
         <v>10</v>
@@ -745,10 +745,10 @@
         <v>14.9253731343284</v>
       </c>
       <c r="I6" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>25.7575757575758</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
         <v>18</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>12110</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.62042939554852</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.72727272727273</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>220</v>
+        <v>19855</v>
       </c>
       <c r="F8" t="n">
-        <v>0.210695678823169</v>
+        <v>4.29633572655787</v>
       </c>
       <c r="G8" t="n">
         <v>5</v>
@@ -821,10 +821,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>1.51515151515152</v>
+        <v>4.54545454545454</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>4466</v>
+        <v>30223</v>
       </c>
       <c r="F9" t="n">
-        <v>4.27712228011033</v>
+        <v>6.5398214386179</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J9" t="n">
-        <v>4.54545454545454</v>
+        <v>7.72727272727273</v>
       </c>
       <c r="K9" t="n">
         <v>3</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>5194</v>
+        <v>42442</v>
       </c>
       <c r="F10" t="n">
-        <v>4.97433343548881</v>
+        <v>9.18383686258217</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
@@ -897,10 +897,10 @@
         <v>16.4179104477612</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>6.06060606060606</v>
+        <v>10.4545454545455</v>
       </c>
       <c r="K10" t="n">
         <v>5</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>2298</v>
+        <v>33291</v>
       </c>
       <c r="F11" t="n">
-        <v>2.2008121360711</v>
+        <v>7.20369240356777</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -935,10 +935,10 @@
         <v>8.95522388059702</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J11" t="n">
-        <v>4.54545454545454</v>
+        <v>9.09090909090909</v>
       </c>
       <c r="K11" t="n">
         <v>5</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3078</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.666034820767823</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>584</v>
+        <v>12003</v>
       </c>
       <c r="F13" t="n">
-        <v>0.559301256512412</v>
+        <v>2.59727613829635</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -1011,10 +1011,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.03030303030303</v>
+        <v>2.27272727272727</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>7545</v>
+        <v>29461</v>
       </c>
       <c r="F14" t="n">
-        <v>7.22590407600368</v>
+        <v>6.37493562528942</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -1049,16 +1049,16 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J14" t="n">
-        <v>6.06060606060606</v>
+        <v>4.54545454545454</v>
       </c>
       <c r="K14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L14" t="n">
-        <v>8.95522388059702</v>
+        <v>10.4477611940299</v>
       </c>
     </row>
     <row r="15">
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>1028</v>
+        <v>11226</v>
       </c>
       <c r="F15" t="n">
-        <v>0.984523444682807</v>
+        <v>2.42914454124093</v>
       </c>
       <c r="G15" t="n">
         <v>5</v>
@@ -1087,10 +1087,10 @@
         <v>7.46268656716418</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.03030303030303</v>
+        <v>2.72727272727273</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>3538</v>
+        <v>11284</v>
       </c>
       <c r="F16" t="n">
-        <v>3.38836959852896</v>
+        <v>2.44169490498509</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -1125,10 +1125,10 @@
         <v>5.97014925373134</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51515151515152</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="K16" t="n">
         <v>2</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3078</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.666034820767823</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6677</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.44480652965132</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>10904</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2.35946838390264</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1239,16 +1239,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.49253731343284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7079</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.53179353353327</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1277,10 +1277,10 @@
         <v>2.98507462686567</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.36363636363636</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>5661</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.22495877854667</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.909090909090909</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>2470</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.534472387035907</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5265</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.13927008815549</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>5265</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1.13927008815549</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>5265</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.13927008815549</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1467,10 +1467,10 @@
         <v>1.49253731343284</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4420</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>0.956424271537939</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.454545454545455</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
